--- a/doc/Other/Uddered but not Herd.xlsx
+++ b/doc/Other/Uddered but not Herd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\doc\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F60267-6A38-4A97-BDBE-4595A963DEAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D9F6F2-639D-4908-BE57-5210A2316E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="0" windowWidth="27730" windowHeight="12590" activeTab="1" xr2:uid="{27E8DCDA-6168-40C3-8C73-8A67D17F74D2}"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="15000" windowHeight="11550" xr2:uid="{27E8DCDA-6168-40C3-8C73-8A67D17F74D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,19 +579,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208A2B5E-A91D-4FDB-B5EF-961A96925BBB}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="K2" sqref="E2:K2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="11" width="2.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.08203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.625" style="2"/>
+    <col min="2" max="11" width="2.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>9</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -884,20 +884,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDED8FBB-B66F-4EEF-A441-483FB411AD1D}">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="10"/>
-    <col min="2" max="2" width="2.83203125" style="10" customWidth="1"/>
-    <col min="3" max="9" width="2.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.4140625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="10"/>
+    <col min="1" max="1" width="8.625" style="10"/>
+    <col min="2" max="2" width="2.875" style="10" customWidth="1"/>
+    <col min="3" max="9" width="2.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>7</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>0</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>0</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>0</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>0</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>0</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>0</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>0</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>0</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>0</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>0</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>0</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>0</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>0</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>0</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>0</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>0</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>0</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>0</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>0</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>0</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>0</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>0</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>0</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>0</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>0</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>0</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>0</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>0</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>0</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>0</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>0</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>0</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>0</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>0</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>0</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>0</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>0</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>0</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>0</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>0</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>0</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>0</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>0</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>0</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>0</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>0</v>
       </c>
@@ -2775,6 +2775,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>